--- a/helpers/rolltables/Results.xlsx
+++ b/helpers/rolltables/Results.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovel\Desktop\RollTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovel\Documents\GitHub\dunmar\helpers\rolltables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
